--- a/Initial 1-Hop Data.xlsx
+++ b/Initial 1-Hop Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f450ed88a79f67a/Documents/School Files/ECE 537/PA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\SkyDrive\Documents\School Files\ECE 537\PA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -227,34 +227,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,7 +256,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,10 +1462,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$31</c:f>
+              <c:f>Sheet1!$M$3:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>9.1669999999999998</c:v>
                 </c:pt>
@@ -1512,56 +1512,50 @@
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.672</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.839</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.006</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.173</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183.34</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>229.17499999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>238.34199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$31</c:f>
+              <c:f>Sheet1!$G$3:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>12.6</c:v>
                 </c:pt>
@@ -1611,42 +1605,36 @@
                   <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.2</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.4</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.5</c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.7</c:v>
+                  <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.7</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.2</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.5</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.3</c:v>
+                  <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>49.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,10 +2018,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$31</c:f>
+              <c:f>Sheet1!$M$3:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>9.1669999999999998</c:v>
                 </c:pt>
@@ -2080,56 +2068,50 @@
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.672</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.839</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.006</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.173</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183.34</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>229.17499999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>238.34199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$31</c:f>
+              <c:f>Sheet1!$H$3:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.65900000000000003</c:v>
                 </c:pt>
@@ -2179,42 +2161,36 @@
                   <c:v>0.51700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.51600000000000001</c:v>
+                  <c:v>0.39800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35299999999999998</c:v>
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39800000000000002</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.40899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23899999999999999</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40899999999999997</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2601,10 +2577,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$31</c:f>
+              <c:f>Sheet1!$M$3:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>9.1669999999999998</c:v>
                 </c:pt>
@@ -2651,56 +2627,50 @@
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.672</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.839</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.006</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.173</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183.34</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>229.17499999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>238.34199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$31</c:f>
+              <c:f>Sheet1!$I$3:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>38.615000000000002</c:v>
                 </c:pt>
@@ -2750,42 +2720,36 @@
                   <c:v>25.536999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.698</c:v>
+                  <c:v>47.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84.483999999999995</c:v>
+                  <c:v>41.069000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.28</c:v>
+                  <c:v>317.08499999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.069000000000003</c:v>
+                  <c:v>23.606000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>317.08499999999998</c:v>
+                  <c:v>116.44799999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.606000000000002</c:v>
+                  <c:v>23.646999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>116.44799999999999</c:v>
+                  <c:v>45.127000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.646999999999998</c:v>
+                  <c:v>99.808999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.127000000000002</c:v>
+                  <c:v>394.17200000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99.808999999999997</c:v>
+                  <c:v>248.83099999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>394.17200000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>248.83099999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>511.31099999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3169,10 +3133,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$31</c:f>
+              <c:f>Sheet1!$M$3:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>9.1669999999999998</c:v>
                 </c:pt>
@@ -3219,56 +3183,50 @@
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>137.505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.505</c:v>
+                  <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146.672</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155.839</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165.006</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>174.173</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183.34</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>229.17499999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>238.34199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$31</c:f>
+              <c:f>Sheet1!$J$3:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
@@ -3318,42 +3276,36 @@
                   <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8E-3</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>8.3999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3999999999999995E-3</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21</c:v>
+                  <c:v>9.7999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7999999999999997E-3</c:v>
+                  <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>1.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1999999999999997E-3</c:v>
+                  <c:v>2.8999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3999999999999999E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
@@ -7126,13 +7078,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7494,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,54 +7466,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -7569,38 +7521,38 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>4.7</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>1.8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>38586</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>9.1669999999999998</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>12.6</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>0.65900000000000003</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>38.615000000000002</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>35561</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>9.1669999999999998</v>
       </c>
@@ -7609,885 +7561,885 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>6.4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>1.3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>38588</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>18.334</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>10.6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>0.79</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>20.495999999999999</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>1.4E-3</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>58956</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>18.334</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>5.5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>1.51</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>38590</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>27.500999999999998</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>10.5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>0.79400000000000004</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>19.433</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <v>2.8E-3</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>43030</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>27.500999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>12.9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0.65</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>38592</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>36.667999999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>14.4</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>0.57299999999999995</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>39.418999999999997</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>53099</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>36.667999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>10.1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>38594</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>45.835000000000001</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>9</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>0.93300000000000005</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>19.629000000000001</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>53631</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>45.835000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>1.41</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>38596</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>55.001999999999995</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>11.6</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>0.72199999999999998</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>15.090999999999999</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>50118</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>55.001999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>9.9</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>0.84599999999999997</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>38598</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>64.168999999999997</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>12.2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>0.69</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>21.734999999999999</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>0</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>58894</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>64.168999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8.9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>0.94599999999999995</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>38600</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>73.335999999999999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>8</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>1.04</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>7.7560000000000002</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>37332</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>73.335999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>15.1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>0.55500000000000005</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>38602</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>82.503</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>19.3</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>0.42899999999999999</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>267.04599999999999</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>52715</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>82.503</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>0.46899999999999997</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>38604</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>91.67</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>17</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>0.49199999999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>47.802</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>2.8E-3</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>50833</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <v>1</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>91.67</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>12.7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>0.66</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>38606</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>100.837</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>11.1</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>0.755</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>13.436</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>1.4E-3</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <v>56178</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="8">
         <v>0</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>100.837</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11.4</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>38608</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>110.00399999999999</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>25.1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>0.33100000000000002</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>49.627000000000002</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>36464</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>110.00399999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>11.2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>0.751</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>38610</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>119.17099999999999</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>9</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>8.5640000000000001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>40977</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>0</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>119.17099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>16.899999999999999</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>0.497</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>38612</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>128.33799999999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>8.1</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>1.03</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>9.3689999999999998</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>1.4E-3</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="8">
         <v>42082</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <v>0</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>128.33799999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>16.899999999999999</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>0.496</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>38614</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>137.505</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <v>12.2</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>0.309</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>51.52</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="19">
         <v>47383</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="19">
         <v>0</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>137.505</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>45.2</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>0.185</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>38616</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>146.672</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
         <v>16.2</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="17">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>25.536999999999999</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="18">
         <v>1.4E-3</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>49256</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="19">
         <v>0</v>
       </c>
-      <c r="M18" s="23">
-        <f>PRODUCT(P3,ROW()-3)</f>
-        <v>137.505</v>
+      <c r="M18" s="20">
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>146.672</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>93.2</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>0.09</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>38618</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>155.839</v>
       </c>
-      <c r="G19" s="19">
-        <v>16.2</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I19" s="20">
-        <v>47.698</v>
-      </c>
-      <c r="J19" s="21">
-        <v>2.8E-3</v>
-      </c>
-      <c r="K19" s="22">
-        <v>48076</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="G19" s="14">
+        <v>15.5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="I19" s="7">
+        <v>47.28</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="K19" s="8">
+        <v>47451</v>
+      </c>
+      <c r="L19" s="8">
         <v>1</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="9">
         <f>PRODUCT(P3,ROW()-4)</f>
         <v>137.505</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>36.9</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>0.22700000000000001</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>38620</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>165.006</v>
       </c>
-      <c r="G20" s="19">
-        <v>23.4</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="I20" s="20">
-        <v>84.483999999999995</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K20" s="22">
-        <v>36582</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="G20" s="14">
+        <v>20.7</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I20" s="7">
+        <v>41.069000000000003</v>
+      </c>
+      <c r="J20" s="15">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45930</v>
+      </c>
+      <c r="L20" s="8">
         <v>1</v>
       </c>
-      <c r="M20" s="23">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>137.505</v>
+      <c r="M20" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>146.672</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>42.9</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>38622</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>174.173</v>
       </c>
-      <c r="G21" s="17">
-        <v>15.5</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="I21" s="10">
-        <v>47.28</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0.27</v>
-      </c>
-      <c r="K21" s="11">
-        <v>47451</v>
-      </c>
-      <c r="L21" s="11">
+      <c r="G21" s="14">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>317.08499999999998</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="K21" s="8">
+        <v>43820</v>
+      </c>
+      <c r="L21" s="8">
         <v>1</v>
       </c>
-      <c r="M21" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>146.672</v>
+      <c r="M21" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>155.839</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>84.4</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>38624</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>183.34</v>
       </c>
-      <c r="G22" s="17">
-        <v>20.7</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="I22" s="10">
-        <v>41.069000000000003</v>
-      </c>
-      <c r="J22" s="18">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="K22" s="11">
-        <v>45930</v>
-      </c>
-      <c r="L22" s="11">
+      <c r="G22" s="14">
+        <v>30.7</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="I22" s="7">
+        <v>23.606000000000002</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>53363</v>
+      </c>
+      <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="M22" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>155.839</v>
+      <c r="M22" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>165.006</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>89.4</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>38626</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>192.50700000000001</v>
       </c>
-      <c r="G23" s="17">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="10">
-        <v>317.08499999999998</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="K23" s="11">
-        <v>43820</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="G23" s="14">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I23" s="7">
+        <v>116.44799999999999</v>
+      </c>
+      <c r="J23" s="15">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="K23" s="8">
+        <v>36359</v>
+      </c>
+      <c r="L23" s="8">
         <v>1</v>
       </c>
-      <c r="M23" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>165.006</v>
+      <c r="M23" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>174.173</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>98.3</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>38630</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>201.67400000000001</v>
       </c>
-      <c r="G24" s="17">
-        <v>30.7</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="I24" s="10">
-        <v>23.606000000000002</v>
-      </c>
-      <c r="J24" s="18">
+      <c r="G24" s="14">
+        <v>20.2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23.646999999999998</v>
+      </c>
+      <c r="J24" s="15">
         <v>1.4E-2</v>
       </c>
-      <c r="K24" s="11">
-        <v>53363</v>
-      </c>
-      <c r="L24" s="11">
+      <c r="K24" s="8">
+        <v>33395</v>
+      </c>
+      <c r="L24" s="8">
         <v>1</v>
       </c>
-      <c r="M24" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>174.173</v>
+      <c r="M24" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>183.34</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>210.84100000000001</v>
       </c>
-      <c r="G25" s="17">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="I25" s="10">
-        <v>116.44799999999999</v>
-      </c>
-      <c r="J25" s="18">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="K25" s="11">
-        <v>36359</v>
-      </c>
-      <c r="L25" s="11">
+      <c r="G25" s="14">
+        <v>16.5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45.127000000000002</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K25" s="8">
+        <v>60055</v>
+      </c>
+      <c r="L25" s="8">
         <v>1</v>
       </c>
-      <c r="M25" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>183.34</v>
+      <c r="M25" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>192.50700000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>70.8</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>38634</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>220.00799999999998</v>
       </c>
-      <c r="G26" s="17">
-        <v>20.2</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="I26" s="10">
-        <v>23.646999999999998</v>
-      </c>
-      <c r="J26" s="18">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K26" s="11">
-        <v>33395</v>
-      </c>
-      <c r="L26" s="11">
+      <c r="G26" s="14">
+        <v>27.3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>99.808999999999997</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>49324</v>
+      </c>
+      <c r="L26" s="8">
         <v>1</v>
       </c>
-      <c r="M26" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>192.50700000000001</v>
+      <c r="M26" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>201.67400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>175</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>38636</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>229.17499999999998</v>
       </c>
-      <c r="G27" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I27" s="10">
-        <v>45.127000000000002</v>
-      </c>
-      <c r="J27" s="18">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="K27" s="11">
-        <v>60055</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="G27" s="14">
+        <v>39.1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I27" s="7">
+        <v>394.17200000000003</v>
+      </c>
+      <c r="J27" s="15">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>39330</v>
+      </c>
+      <c r="L27" s="8">
         <v>1</v>
       </c>
-      <c r="M27" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>201.67400000000001</v>
+      <c r="M27" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>210.84100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8495,126 +8447,78 @@
         <f>AVERAGE(A3:A27)</f>
         <v>37.608333333333327</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <f>AVERAGE(B3:B27)</f>
         <v>0.60817916666666672</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="17">
-        <v>27.3</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="I28" s="10">
-        <v>99.808999999999997</v>
-      </c>
-      <c r="J28" s="18">
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="K28" s="11">
-        <v>49324</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="G28" s="14">
+        <v>37.9</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="I28" s="7">
+        <v>248.83099999999999</v>
+      </c>
+      <c r="J28" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>33201</v>
+      </c>
+      <c r="L28" s="8">
         <v>1</v>
       </c>
-      <c r="M28" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>210.84100000000001</v>
+      <c r="M28" s="9">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>220.00799999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="17">
-        <v>39.1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="I29" s="10">
-        <v>394.17200000000003</v>
-      </c>
-      <c r="J29" s="18">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="K29" s="11">
-        <v>39330</v>
-      </c>
-      <c r="L29" s="11">
-        <v>1</v>
-      </c>
-      <c r="M29" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>220.00799999999998</v>
+      <c r="G29" s="21">
+        <v>49.1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I29" s="11">
+        <v>511.31099999999998</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="K29" s="12">
+        <v>48690</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <f>PRODUCT(P3,ROW()-4)</f>
+        <v>229.17499999999998</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="17">
-        <v>37.9</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.217</v>
-      </c>
-      <c r="I30" s="10">
-        <v>248.83099999999999</v>
-      </c>
-      <c r="J30" s="18">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K30" s="11">
-        <v>33201</v>
-      </c>
-      <c r="L30" s="11">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>229.17499999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="24">
-        <v>49.1</v>
-      </c>
-      <c r="H31" s="14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I31" s="14">
-        <v>511.31099999999998</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0.69</v>
-      </c>
-      <c r="K31" s="15">
-        <v>48690</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <f>PRODUCT(P3,ROW()-5)</f>
-        <v>238.34199999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="4">
-        <f>AVERAGE(G3:G31)</f>
-        <v>19.706896551724139</v>
-      </c>
-      <c r="H32" s="3">
-        <f>AVERAGE(H3:H31)</f>
-        <v>0.51896551724137929</v>
-      </c>
-      <c r="I32" s="3">
-        <f>AVERAGE(I3:I31)</f>
-        <v>91.573862068965525</v>
-      </c>
-      <c r="J32" s="2">
-        <f>AVERAGE(J3:J31)</f>
-        <v>6.5875862068965507E-2</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="G30" s="4">
+        <f>AVERAGE(G3:G29)</f>
+        <v>19.7</v>
+      </c>
+      <c r="H30" s="3">
+        <f>AVERAGE(H3:H29)</f>
+        <v>0.52522222222222226</v>
+      </c>
+      <c r="I30" s="3">
+        <f>AVERAGE(I3:I29)</f>
+        <v>93.461481481481485</v>
+      </c>
+      <c r="J30" s="2">
+        <f>AVERAGE(J3:J29)</f>
+        <v>7.0096296296296295E-2</v>
+      </c>
+      <c r="N30" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Initial 1-Hop Data.xlsx
+++ b/Initial 1-Hop Data.xlsx
@@ -78,18 +78,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -240,11 +234,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -266,6 +255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,37 +1509,37 @@
                   <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.505</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.672</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155.839</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165.006</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.173</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183.34</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>229.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>220.00799999999998</c:v>
+                  <c:v>238.34199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>229.17499999999998</c:v>
+                  <c:v>247.50899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,37 +2065,37 @@
                   <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.505</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.672</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155.839</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165.006</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.173</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183.34</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>229.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>220.00799999999998</c:v>
+                  <c:v>238.34199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>229.17499999999998</c:v>
+                  <c:v>247.50899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,37 +2624,37 @@
                   <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.505</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.672</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155.839</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165.006</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.173</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183.34</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>229.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>220.00799999999998</c:v>
+                  <c:v>238.34199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>229.17499999999998</c:v>
+                  <c:v>247.50899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,37 +3180,37 @@
                   <c:v>146.672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.505</c:v>
+                  <c:v>155.839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.672</c:v>
+                  <c:v>165.006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155.839</c:v>
+                  <c:v>174.173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165.006</c:v>
+                  <c:v>183.34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174.173</c:v>
+                  <c:v>192.50700000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183.34</c:v>
+                  <c:v>201.67400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192.50700000000001</c:v>
+                  <c:v>210.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.67400000000001</c:v>
+                  <c:v>220.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.84100000000001</c:v>
+                  <c:v>229.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>220.00799999999998</c:v>
+                  <c:v>238.34199999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>229.17499999999998</c:v>
+                  <c:v>247.50899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7448,8 +7442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7466,54 +7460,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -8055,25 +8049,25 @@
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>137.505</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="25">
         <v>12.2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="26">
         <v>0.309</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="26">
         <v>51.52</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="28">
         <v>47383</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="28">
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="29">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>137.505</v>
       </c>
@@ -8092,25 +8086,25 @@
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>146.672</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="25">
         <v>16.2</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="26">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="26">
         <v>25.536999999999999</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="27">
         <v>1.4E-3</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="28">
         <v>49256</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="28">
         <v>0</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="29">
         <f>PRODUCT(P3,ROW()-2)</f>
         <v>146.672</v>
       </c>
@@ -8148,8 +8142,8 @@
         <v>1</v>
       </c>
       <c r="M19" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>137.505</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>155.839</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -8185,8 +8179,8 @@
         <v>1</v>
       </c>
       <c r="M20" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>146.672</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>165.006</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -8222,8 +8216,8 @@
         <v>1</v>
       </c>
       <c r="M21" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>155.839</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>174.173</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -8259,8 +8253,8 @@
         <v>1</v>
       </c>
       <c r="M22" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>165.006</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>183.34</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8296,8 +8290,8 @@
         <v>1</v>
       </c>
       <c r="M23" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>174.173</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>192.50700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -8333,8 +8327,8 @@
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>183.34</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>201.67400000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8364,8 +8358,8 @@
         <v>1</v>
       </c>
       <c r="M25" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>192.50700000000001</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>210.84100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8401,8 +8395,8 @@
         <v>1</v>
       </c>
       <c r="M26" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>201.67400000000001</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>220.00799999999998</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -8438,8 +8432,8 @@
         <v>1</v>
       </c>
       <c r="M27" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>210.84100000000001</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>229.17499999999998</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8447,7 +8441,7 @@
         <f>AVERAGE(A3:A27)</f>
         <v>37.608333333333327</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="21">
         <f>AVERAGE(B3:B27)</f>
         <v>0.60817916666666672</v>
       </c>
@@ -8473,12 +8467,12 @@
         <v>1</v>
       </c>
       <c r="M28" s="9">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>220.00799999999998</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>238.34199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="21">
+      <c r="G29" s="16">
         <v>49.1</v>
       </c>
       <c r="H29" s="11">
@@ -8487,7 +8481,7 @@
       <c r="I29" s="11">
         <v>511.31099999999998</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="17">
         <v>0.69</v>
       </c>
       <c r="K29" s="12">
@@ -8497,8 +8491,8 @@
         <v>0</v>
       </c>
       <c r="M29" s="13">
-        <f>PRODUCT(P3,ROW()-4)</f>
-        <v>229.17499999999998</v>
+        <f>PRODUCT(P3,ROW()-2)</f>
+        <v>247.50899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
